--- a/src/main/resources/EAP_PBF-Closed_Case_Approval_Revisions-2023-24-WCG_.xlsx
+++ b/src/main/resources/EAP_PBF-Closed_Case_Approval_Revisions-2023-24-WCG_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/workspaces/xmlgenerator/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F817C9C-B31A-CD4D-B398-9F9D194002D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2282789A-8294-C44C-8A4E-E125F2F237D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="34520" windowHeight="20600" xr2:uid="{036D6535-D3F5-41D7-8F44-C9A0EDC3E7B9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="124">
   <si>
     <t>SSM NAME</t>
   </si>
@@ -241,75 +241,6 @@
     <t>5214N</t>
   </si>
   <si>
-    <t>13/09/2023</t>
-  </si>
-  <si>
-    <t>13/06/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20/06/2023 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">17/06/2023 </t>
-  </si>
-  <si>
-    <t>23/09/2022</t>
-  </si>
-  <si>
-    <t>30/09/2022</t>
-  </si>
-  <si>
-    <t>20/06/2022</t>
-  </si>
-  <si>
-    <t>24/06/2022</t>
-  </si>
-  <si>
-    <t>26/08/2022</t>
-  </si>
-  <si>
-    <t>27/05/2022</t>
-  </si>
-  <si>
-    <t>25/11/2022</t>
-  </si>
-  <si>
-    <t>29/06/2022</t>
-  </si>
-  <si>
-    <t>28/07/2022</t>
-  </si>
-  <si>
-    <t>24/10/2022</t>
-  </si>
-  <si>
-    <t>19/08/2022</t>
-  </si>
-  <si>
-    <t>19/09/2022</t>
-  </si>
-  <si>
-    <t>19/12/2022</t>
-  </si>
-  <si>
-    <t>27/09/2022</t>
-  </si>
-  <si>
-    <t>18/07/2022</t>
-  </si>
-  <si>
-    <t>14/07/2022</t>
-  </si>
-  <si>
-    <t>16/03/2023</t>
-  </si>
-  <si>
-    <t>21/01/2022</t>
-  </si>
-  <si>
-    <t>14/03/2022</t>
-  </si>
-  <si>
     <t>SSM Approval</t>
   </si>
   <si>
@@ -323,6 +254,1974 @@
   </si>
   <si>
     <t>DATE APPROVED dd/mm/yyyy</t>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>2023</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>2023</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>2023</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>08</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>2023</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>2023</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>2023</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>2023</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>07</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>07</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>2023</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>2023</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>2022</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>07</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>09</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>2023</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>09</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>2023</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>09</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>2024</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>2022</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>2022</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>2022</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>09</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>2022</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>09</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>2022</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>2022</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>2022</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>26</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>08</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>2022</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>27</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>2022</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>07</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>2022</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>08</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>2022</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>2022</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>09</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>2022</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>2022</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>2022</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>29</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>2022</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>07</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>2022</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>07</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>08</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>2022</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>2022</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>08</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>2022</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>09</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>2022</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>2023</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>2023</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>2022</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>2023</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>2023</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>2022</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>27</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>09</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>2022</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>2022</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>07</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>2022</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>07</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>2022</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>2023</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>2023</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>2022</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>2022</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -332,7 +2231,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -387,6 +2286,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFBCBEC4"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF2AACB8"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -401,7 +2312,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -435,27 +2346,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -520,18 +2416,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Input" xfId="1" builtinId="20"/>
@@ -915,9 +2800,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E7AC53-865D-4541-B410-75C25ED2D303}">
   <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J84" sqref="J84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -953,19 +2838,19 @@
         <v>5</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="9" customFormat="1" ht="16">
@@ -988,7 +2873,7 @@
         <v>12</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>8</v>
@@ -996,8 +2881,8 @@
       <c r="I2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="22">
-        <v>45203</v>
+      <c r="J2" s="22" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="9" customFormat="1" ht="16">
@@ -1020,7 +2905,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>8</v>
@@ -1028,8 +2913,8 @@
       <c r="I3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="22">
-        <v>45081</v>
+      <c r="J3" s="22" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16">
@@ -1052,7 +2937,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>8</v>
@@ -1060,8 +2945,8 @@
       <c r="I4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="23" t="s">
-        <v>72</v>
+      <c r="J4" s="22" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16">
@@ -1084,7 +2969,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>8</v>
@@ -1092,8 +2977,8 @@
       <c r="I5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="24">
-        <v>45144</v>
+      <c r="J5" s="22" t="s">
+        <v>79</v>
       </c>
       <c r="K5" s="21"/>
     </row>
@@ -1117,7 +3002,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>8</v>
@@ -1125,8 +3010,8 @@
       <c r="I6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="24">
-        <v>45144</v>
+      <c r="J6" s="22" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16">
@@ -1149,7 +3034,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>8</v>
@@ -1157,8 +3042,8 @@
       <c r="I7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="24">
-        <v>45083</v>
+      <c r="J7" s="22" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16">
@@ -1181,7 +3066,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>8</v>
@@ -1189,8 +3074,8 @@
       <c r="I8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="23" t="s">
-        <v>73</v>
+      <c r="J8" s="22" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16">
@@ -1213,7 +3098,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>8</v>
@@ -1221,8 +3106,8 @@
       <c r="I9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="24">
-        <v>45083</v>
+      <c r="J9" s="22" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16">
@@ -1245,7 +3130,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>8</v>
@@ -1253,8 +3138,8 @@
       <c r="I10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="23" t="s">
-        <v>74</v>
+      <c r="J10" s="22" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16">
@@ -1277,7 +3162,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>8</v>
@@ -1285,8 +3170,8 @@
       <c r="I11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="24">
-        <v>45114</v>
+      <c r="J11" s="22" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16">
@@ -1309,7 +3194,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>8</v>
@@ -1317,8 +3202,8 @@
       <c r="I12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="24">
-        <v>44990</v>
+      <c r="J12" s="22" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="16">
@@ -1341,7 +3226,7 @@
         <v>6</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H13" s="11" t="s">
         <v>8</v>
@@ -1349,8 +3234,8 @@
       <c r="I13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J13" s="24">
-        <v>44887</v>
+      <c r="J13" s="22" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16">
@@ -1373,7 +3258,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>8</v>
@@ -1381,8 +3266,8 @@
       <c r="I14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J14" s="24">
-        <v>45116</v>
+      <c r="J14" s="22" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16">
@@ -1405,7 +3290,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>8</v>
@@ -1413,8 +3298,8 @@
       <c r="I15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="24">
-        <v>45116</v>
+      <c r="J15" s="22" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16">
@@ -1437,7 +3322,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>8</v>
@@ -1445,8 +3330,8 @@
       <c r="I16" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J16" s="24">
-        <v>45116</v>
+      <c r="J16" s="22" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16">
@@ -1469,7 +3354,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>8</v>
@@ -1477,8 +3362,8 @@
       <c r="I17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J17" s="24">
-        <v>45116</v>
+      <c r="J17" s="22" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="16">
@@ -1501,7 +3386,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>8</v>
@@ -1509,8 +3394,8 @@
       <c r="I18" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J18" s="25" t="s">
-        <v>71</v>
+      <c r="J18" s="22" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16">
@@ -1533,7 +3418,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>8</v>
@@ -1541,8 +3426,8 @@
       <c r="I19" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J19" s="24">
-        <v>45116</v>
+      <c r="J19" s="22" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16">
@@ -1565,7 +3450,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>8</v>
@@ -1573,8 +3458,8 @@
       <c r="I20" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="25" t="s">
-        <v>71</v>
+      <c r="J20" s="22" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16">
@@ -1597,7 +3482,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>8</v>
@@ -1605,8 +3490,8 @@
       <c r="I21" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J21" s="25" t="s">
-        <v>71</v>
+      <c r="J21" s="22" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="16">
@@ -1629,7 +3514,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>8</v>
@@ -1637,8 +3522,8 @@
       <c r="I22" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J22" s="24">
-        <v>45116</v>
+      <c r="J22" s="22" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16">
@@ -1661,7 +3546,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>8</v>
@@ -1669,8 +3554,8 @@
       <c r="I23" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J23" s="25" t="s">
-        <v>71</v>
+      <c r="J23" s="22" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="16">
@@ -1693,7 +3578,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H24" s="8" t="s">
         <v>8</v>
@@ -1701,8 +3586,8 @@
       <c r="I24" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J24" s="25" t="s">
-        <v>71</v>
+      <c r="J24" s="22" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16">
@@ -1725,7 +3610,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>8</v>
@@ -1733,8 +3618,8 @@
       <c r="I25" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J25" s="25" t="s">
-        <v>71</v>
+      <c r="J25" s="22" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16">
@@ -1757,7 +3642,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H26" s="8" t="s">
         <v>8</v>
@@ -1765,8 +3650,8 @@
       <c r="I26" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J26" s="25" t="s">
-        <v>71</v>
+      <c r="J26" s="22" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16">
@@ -1789,7 +3674,7 @@
         <v>12</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H27" s="8" t="s">
         <v>8</v>
@@ -1797,8 +3682,8 @@
       <c r="I27" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J27" s="25" t="s">
-        <v>71</v>
+      <c r="J27" s="22" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="16">
@@ -1821,7 +3706,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H28" s="8" t="s">
         <v>8</v>
@@ -1829,8 +3714,8 @@
       <c r="I28" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J28" s="24">
-        <v>45536</v>
+      <c r="J28" s="22" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16">
@@ -1853,7 +3738,7 @@
         <v>3</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H29" s="8" t="s">
         <v>8</v>
@@ -1861,8 +3746,8 @@
       <c r="I29" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J29" s="24">
-        <v>44717</v>
+      <c r="J29" s="22" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16">
@@ -1885,7 +3770,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H30" s="8" t="s">
         <v>8</v>
@@ -1893,8 +3778,8 @@
       <c r="I30" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J30" s="24">
-        <v>44869</v>
+      <c r="J30" s="22" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="16">
@@ -1917,7 +3802,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H31" s="8" t="s">
         <v>8</v>
@@ -1925,8 +3810,8 @@
       <c r="I31" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J31" s="24">
-        <v>44732</v>
+      <c r="J31" s="22" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="16">
@@ -1949,7 +3834,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H32" s="8" t="s">
         <v>8</v>
@@ -1957,8 +3842,8 @@
       <c r="I32" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J32" s="25" t="s">
-        <v>75</v>
+      <c r="J32" s="22" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="16">
@@ -1981,7 +3866,7 @@
         <v>3</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H33" s="8" t="s">
         <v>8</v>
@@ -1989,8 +3874,8 @@
       <c r="I33" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J33" s="25" t="s">
-        <v>76</v>
+      <c r="J33" s="22" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="16">
@@ -2013,16 +3898,16 @@
         <v>3</v>
       </c>
       <c r="G34" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J34" s="22" t="s">
         <v>94</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J34" s="25" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="16">
@@ -2045,7 +3930,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H35" s="8" t="s">
         <v>8</v>
@@ -2053,8 +3938,8 @@
       <c r="I35" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J35" s="25" t="s">
-        <v>78</v>
+      <c r="J35" s="22" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="16">
@@ -2077,7 +3962,7 @@
         <v>3</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H36" s="8" t="s">
         <v>8</v>
@@ -2085,8 +3970,8 @@
       <c r="I36" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J36" s="25" t="s">
-        <v>79</v>
+      <c r="J36" s="22" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="16">
@@ -2109,7 +3994,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H37" s="8" t="s">
         <v>8</v>
@@ -2117,8 +4002,8 @@
       <c r="I37" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J37" s="25" t="s">
-        <v>80</v>
+      <c r="J37" s="22" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="16">
@@ -2141,7 +4026,7 @@
         <v>3</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H38" s="8" t="s">
         <v>8</v>
@@ -2149,8 +4034,8 @@
       <c r="I38" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J38" s="24">
-        <v>44841</v>
+      <c r="J38" s="22" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="16">
@@ -2173,7 +4058,7 @@
         <v>3</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H39" s="8" t="s">
         <v>8</v>
@@ -2181,8 +4066,8 @@
       <c r="I39" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J39" s="24">
-        <v>44785</v>
+      <c r="J39" s="22" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="16">
@@ -2205,16 +4090,16 @@
         <v>1</v>
       </c>
       <c r="G40" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J40" s="22" t="s">
         <v>94</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J40" s="25" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="16">
@@ -2237,7 +4122,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H41" s="8" t="s">
         <v>8</v>
@@ -2245,8 +4130,8 @@
       <c r="I41" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J41" s="24">
-        <v>44841</v>
+      <c r="J41" s="22" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="16">
@@ -2269,16 +4154,16 @@
         <v>3</v>
       </c>
       <c r="G42" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J42" s="22" t="s">
         <v>94</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J42" s="25" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="16">
@@ -2301,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H43" s="8" t="s">
         <v>8</v>
@@ -2309,8 +4194,8 @@
       <c r="I43" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J43" s="25" t="s">
-        <v>80</v>
+      <c r="J43" s="22" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="16">
@@ -2333,7 +4218,7 @@
         <v>1</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H44" s="8" t="s">
         <v>8</v>
@@ -2341,8 +4226,8 @@
       <c r="I44" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J44" s="24">
-        <v>44841</v>
+      <c r="J44" s="22" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="16">
@@ -2365,7 +4250,7 @@
         <v>3</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H45" s="8" t="s">
         <v>8</v>
@@ -2373,8 +4258,8 @@
       <c r="I45" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J45" s="25" t="s">
-        <v>81</v>
+      <c r="J45" s="22" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="16">
@@ -2397,7 +4282,7 @@
         <v>3</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H46" s="8" t="s">
         <v>8</v>
@@ -2405,8 +4290,8 @@
       <c r="I46" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J46" s="24">
-        <v>44816</v>
+      <c r="J46" s="22" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="16">
@@ -2429,7 +4314,7 @@
         <v>1</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H47" s="8" t="s">
         <v>8</v>
@@ -2437,8 +4322,8 @@
       <c r="I47" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J47" s="24">
-        <v>44715</v>
+      <c r="J47" s="22" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="16">
@@ -2461,7 +4346,7 @@
         <v>1</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H48" s="8" t="s">
         <v>8</v>
@@ -2469,8 +4354,8 @@
       <c r="I48" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J48" s="24">
-        <v>44687</v>
+      <c r="J48" s="22" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="16">
@@ -2493,7 +4378,7 @@
         <v>1</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H49" s="8" t="s">
         <v>8</v>
@@ -2501,8 +4386,8 @@
       <c r="I49" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J49" s="25" t="s">
-        <v>82</v>
+      <c r="J49" s="22" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="16">
@@ -2525,7 +4410,7 @@
         <v>3</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H50" s="8" t="s">
         <v>8</v>
@@ -2533,8 +4418,8 @@
       <c r="I50" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J50" s="24">
-        <v>44816</v>
+      <c r="J50" s="22" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="16">
@@ -2557,7 +4442,7 @@
         <v>3</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H51" s="8" t="s">
         <v>8</v>
@@ -2565,8 +4450,8 @@
       <c r="I51" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J51" s="25" t="s">
-        <v>83</v>
+      <c r="J51" s="22" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="16">
@@ -2589,7 +4474,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H52" s="8" t="s">
         <v>8</v>
@@ -2597,8 +4482,8 @@
       <c r="I52" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J52" s="24">
-        <v>44750</v>
+      <c r="J52" s="22" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="16">
@@ -2621,16 +4506,16 @@
         <v>1</v>
       </c>
       <c r="G53" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J53" s="22" t="s">
         <v>94</v>
-      </c>
-      <c r="H53" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I53" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J53" s="25" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="16">
@@ -2653,7 +4538,7 @@
         <v>1</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H54" s="8" t="s">
         <v>8</v>
@@ -2661,8 +4546,8 @@
       <c r="I54" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J54" s="25" t="s">
-        <v>75</v>
+      <c r="J54" s="22" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="16">
@@ -2685,7 +4570,7 @@
         <v>1</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H55" s="8" t="s">
         <v>8</v>
@@ -2693,8 +4578,8 @@
       <c r="I55" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J55" s="25" t="s">
-        <v>81</v>
+      <c r="J55" s="22" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="16">
@@ -2717,7 +4602,7 @@
         <v>3</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H56" s="8" t="s">
         <v>8</v>
@@ -2725,8 +4610,8 @@
       <c r="I56" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J56" s="25" t="s">
-        <v>81</v>
+      <c r="J56" s="22" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="16">
@@ -2749,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H57" s="8" t="s">
         <v>8</v>
@@ -2757,8 +4642,8 @@
       <c r="I57" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J57" s="25" t="s">
-        <v>82</v>
+      <c r="J57" s="22" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="16">
@@ -2781,7 +4666,7 @@
         <v>3</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H58" s="8" t="s">
         <v>8</v>
@@ -2789,8 +4674,8 @@
       <c r="I58" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J58" s="25" t="s">
-        <v>84</v>
+      <c r="J58" s="22" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="16">
@@ -2813,7 +4698,7 @@
         <v>3</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H59" s="8" t="s">
         <v>8</v>
@@ -2821,8 +4706,8 @@
       <c r="I59" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J59" s="25" t="s">
-        <v>85</v>
+      <c r="J59" s="22" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="16">
@@ -2845,7 +4730,7 @@
         <v>3</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H60" s="8" t="s">
         <v>8</v>
@@ -2853,8 +4738,8 @@
       <c r="I60" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J60" s="25" t="s">
-        <v>86</v>
+      <c r="J60" s="22" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="16">
@@ -2877,7 +4762,7 @@
         <v>1</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H61" s="8" t="s">
         <v>8</v>
@@ -2885,8 +4770,8 @@
       <c r="I61" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J61" s="25" t="s">
-        <v>78</v>
+      <c r="J61" s="22" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="16">
@@ -2909,7 +4794,7 @@
         <v>3</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H62" s="8" t="s">
         <v>8</v>
@@ -2917,8 +4802,8 @@
       <c r="I62" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J62" s="25" t="s">
-        <v>76</v>
+      <c r="J62" s="22" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="16">
@@ -2941,7 +4826,7 @@
         <v>1</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H63" s="8" t="s">
         <v>8</v>
@@ -2949,8 +4834,8 @@
       <c r="I63" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J63" s="25" t="s">
-        <v>76</v>
+      <c r="J63" s="22" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="16">
@@ -2973,7 +4858,7 @@
         <v>3</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H64" s="8" t="s">
         <v>8</v>
@@ -2981,8 +4866,8 @@
       <c r="I64" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J64" s="24">
-        <v>44938</v>
+      <c r="J64" s="22" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="16">
@@ -3005,7 +4890,7 @@
         <v>1</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H65" s="8" t="s">
         <v>8</v>
@@ -3013,8 +4898,8 @@
       <c r="I65" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J65" s="24">
-        <v>44785</v>
+      <c r="J65" s="22" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="16">
@@ -3037,7 +4922,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H66" s="8" t="s">
         <v>8</v>
@@ -3045,8 +4930,8 @@
       <c r="I66" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J66" s="24">
-        <v>44972</v>
+      <c r="J66" s="22" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="16">
@@ -3069,7 +4954,7 @@
         <v>3</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H67" s="8" t="s">
         <v>8</v>
@@ -3077,8 +4962,8 @@
       <c r="I67" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J67" s="24">
-        <v>44816</v>
+      <c r="J67" s="22" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="16">
@@ -3101,7 +4986,7 @@
         <v>1</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H68" s="8" t="s">
         <v>8</v>
@@ -3109,8 +4994,8 @@
       <c r="I68" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J68" s="24">
-        <v>44684</v>
+      <c r="J68" s="22" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="16">
@@ -3133,7 +5018,7 @@
         <v>1</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H69" s="8" t="s">
         <v>8</v>
@@ -3141,8 +5026,8 @@
       <c r="I69" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J69" s="24">
-        <v>44958</v>
+      <c r="J69" s="22" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="16">
@@ -3165,7 +5050,7 @@
         <v>3</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H70" s="8" t="s">
         <v>8</v>
@@ -3173,8 +5058,8 @@
       <c r="I70" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J70" s="24">
-        <v>44958</v>
+      <c r="J70" s="22" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="16">
@@ -3197,7 +5082,7 @@
         <v>6</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H71" s="8" t="s">
         <v>8</v>
@@ -3205,8 +5090,8 @@
       <c r="I71" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J71" s="24">
-        <v>44958</v>
+      <c r="J71" s="22" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="16">
@@ -3229,7 +5114,7 @@
         <v>12</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H72" s="8" t="s">
         <v>8</v>
@@ -3237,8 +5122,8 @@
       <c r="I72" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J72" s="24" t="s">
-        <v>91</v>
+      <c r="J72" s="22" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="16">
@@ -3261,7 +5146,7 @@
         <v>3</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H73" s="8" t="s">
         <v>8</v>
@@ -3269,8 +5154,8 @@
       <c r="I73" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J73" s="25" t="s">
-        <v>87</v>
+      <c r="J73" s="22" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="16">
@@ -3293,7 +5178,7 @@
         <v>1</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H74" s="8" t="s">
         <v>8</v>
@@ -3301,8 +5186,8 @@
       <c r="I74" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J74" s="25" t="s">
-        <v>79</v>
+      <c r="J74" s="22" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="16">
@@ -3325,7 +5210,7 @@
         <v>3</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H75" s="8" t="s">
         <v>8</v>
@@ -3333,8 +5218,8 @@
       <c r="I75" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J75" s="25" t="s">
-        <v>88</v>
+      <c r="J75" s="22" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="16">
@@ -3357,7 +5242,7 @@
         <v>1</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H76" s="8" t="s">
         <v>8</v>
@@ -3365,8 +5250,8 @@
       <c r="I76" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J76" s="24">
-        <v>44685</v>
+      <c r="J76" s="22" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="16">
@@ -3389,7 +5274,7 @@
         <v>3</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H77" s="8" t="s">
         <v>8</v>
@@ -3397,8 +5282,8 @@
       <c r="I77" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J77" s="25" t="s">
-        <v>89</v>
+      <c r="J77" s="22" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="16">
@@ -3421,7 +5306,7 @@
         <v>3</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H78" s="8" t="s">
         <v>8</v>
@@ -3429,8 +5314,8 @@
       <c r="I78" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J78" s="25" t="s">
-        <v>79</v>
+      <c r="J78" s="22" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="16">
@@ -3453,7 +5338,7 @@
         <v>1</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H79" s="8" t="s">
         <v>8</v>
@@ -3461,8 +5346,8 @@
       <c r="I79" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J79" s="25" t="s">
-        <v>90</v>
+      <c r="J79" s="22" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="16">
@@ -3485,7 +5370,7 @@
         <v>12</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H80" s="8" t="s">
         <v>8</v>
@@ -3493,8 +5378,8 @@
       <c r="I80" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J80" s="24">
-        <v>45021</v>
+      <c r="J80" s="22" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="16">
@@ -3517,7 +5402,7 @@
         <v>1</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H81" s="8" t="s">
         <v>8</v>
@@ -3525,8 +5410,8 @@
       <c r="I81" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J81" s="25" t="s">
-        <v>91</v>
+      <c r="J81" s="22" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="16">
@@ -3549,7 +5434,7 @@
         <v>3</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H82" s="8" t="s">
         <v>8</v>
@@ -3557,8 +5442,8 @@
       <c r="I82" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J82" s="25" t="s">
-        <v>91</v>
+      <c r="J82" s="22" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="16">
@@ -3581,7 +5466,7 @@
         <v>1</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H83" s="8" t="s">
         <v>8</v>
@@ -3589,8 +5474,8 @@
       <c r="I83" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J83" s="24">
-        <v>44958</v>
+      <c r="J83" s="22" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="16">
@@ -3613,7 +5498,7 @@
         <v>1</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H84" s="8" t="s">
         <v>8</v>
@@ -3621,8 +5506,8 @@
       <c r="I84" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J84" s="24">
-        <v>44959</v>
+      <c r="J84" s="22" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="16">
@@ -3645,7 +5530,7 @@
         <v>3</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H85" s="8" t="s">
         <v>8</v>
@@ -3653,8 +5538,8 @@
       <c r="I85" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J85" s="24">
-        <v>44959</v>
+      <c r="J85" s="22" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="16">
@@ -3677,7 +5562,7 @@
         <v>1</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H86" s="8" t="s">
         <v>8</v>
@@ -3685,8 +5570,8 @@
       <c r="I86" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J86" s="25" t="s">
-        <v>92</v>
+      <c r="J86" s="22" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="16">
@@ -3709,7 +5594,7 @@
         <v>3</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H87" s="8" t="s">
         <v>8</v>
@@ -3717,8 +5602,8 @@
       <c r="I87" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J87" s="25" t="s">
-        <v>93</v>
+      <c r="J87" s="22" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="16">
@@ -3741,7 +5626,7 @@
         <v>6</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H88" s="8" t="s">
         <v>8</v>
@@ -3749,8 +5634,8 @@
       <c r="I88" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J88" s="25" t="s">
-        <v>78</v>
+      <c r="J88" s="22" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="16">
@@ -3773,7 +5658,7 @@
         <v>6</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H89" s="8" t="s">
         <v>8</v>
@@ -3781,8 +5666,8 @@
       <c r="I89" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J89" s="24">
-        <v>44958</v>
+      <c r="J89" s="22" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
